--- a/Requis_Remise/Securite_pages.xlsx
+++ b/Requis_Remise/Securite_pages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Securite_pages" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>Numero Page</t>
   </si>
@@ -175,6 +175,30 @@
   </si>
   <si>
     <t>Fait par Michael Trahan</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Michael ++ Jonathan -</t>
+  </si>
+  <si>
+    <t>"++" (Majorité du travail) "-" (Ajout ou contribution)</t>
+  </si>
+  <si>
+    <t>Michael ++</t>
+  </si>
+  <si>
+    <t>Jonathan ++</t>
+  </si>
+  <si>
+    <t>Jonathan + Christophe +</t>
+  </si>
+  <si>
+    <t>Christophe ++</t>
+  </si>
+  <si>
+    <t>Jonathan ++  Christophe (seulement Pratiques)</t>
   </si>
 </sst>
 </file>
@@ -196,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -272,6 +302,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,7 +311,38 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -555,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,17 +630,21 @@
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +657,11 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -604,8 +674,11 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10</v>
       </c>
@@ -616,8 +689,11 @@
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>20</v>
       </c>
@@ -628,8 +704,11 @@
         <v>5</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -640,8 +719,11 @@
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>200</v>
       </c>
@@ -652,8 +734,11 @@
         <v>11</v>
       </c>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>205</v>
       </c>
@@ -664,8 +749,11 @@
         <v>11</v>
       </c>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>210</v>
       </c>
@@ -676,8 +764,11 @@
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>215</v>
       </c>
@@ -688,8 +779,11 @@
         <v>11</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>220</v>
       </c>
@@ -700,8 +794,11 @@
         <v>11</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>230</v>
       </c>
@@ -712,8 +809,11 @@
         <v>11</v>
       </c>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>240</v>
       </c>
@@ -724,8 +824,11 @@
         <v>18</v>
       </c>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>260</v>
       </c>
@@ -736,8 +839,11 @@
         <v>11</v>
       </c>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>270</v>
       </c>
@@ -748,8 +854,11 @@
         <v>11</v>
       </c>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>280</v>
       </c>
@@ -762,8 +871,11 @@
       <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>290</v>
       </c>
@@ -774,8 +886,11 @@
         <v>11</v>
       </c>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>300</v>
       </c>
@@ -788,8 +903,11 @@
       <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>310</v>
       </c>
@@ -800,8 +918,11 @@
         <v>11</v>
       </c>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>320</v>
       </c>
@@ -812,8 +933,11 @@
         <v>11</v>
       </c>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>330</v>
       </c>
@@ -824,8 +948,11 @@
         <v>11</v>
       </c>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>340</v>
       </c>
@@ -836,8 +963,11 @@
         <v>11</v>
       </c>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>360</v>
       </c>
@@ -848,8 +978,11 @@
         <v>18</v>
       </c>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>370</v>
       </c>
@@ -860,8 +993,11 @@
         <v>11</v>
       </c>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>380</v>
       </c>
@@ -874,8 +1010,11 @@
       <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>400</v>
       </c>
@@ -886,8 +1025,11 @@
         <v>11</v>
       </c>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>410</v>
       </c>
@@ -898,8 +1040,11 @@
         <v>18</v>
       </c>
       <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>420</v>
       </c>
@@ -910,8 +1055,11 @@
         <v>11</v>
       </c>
       <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>430</v>
       </c>
@@ -922,8 +1070,11 @@
         <v>18</v>
       </c>
       <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>500</v>
       </c>
@@ -934,8 +1085,11 @@
         <v>11</v>
       </c>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>501</v>
       </c>
@@ -946,8 +1100,11 @@
         <v>18</v>
       </c>
       <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>510</v>
       </c>
@@ -958,8 +1115,11 @@
         <v>18</v>
       </c>
       <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>520</v>
       </c>
@@ -970,8 +1130,11 @@
         <v>18</v>
       </c>
       <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>521</v>
       </c>
@@ -982,8 +1145,11 @@
         <v>18</v>
       </c>
       <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>530</v>
       </c>
@@ -994,8 +1160,11 @@
         <v>11</v>
       </c>
       <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>540</v>
       </c>
@@ -1006,8 +1175,11 @@
         <v>11</v>
       </c>
       <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>560</v>
       </c>
@@ -1018,8 +1190,11 @@
         <v>11</v>
       </c>
       <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>590</v>
       </c>
@@ -1030,8 +1205,11 @@
         <v>25</v>
       </c>
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>600</v>
       </c>
@@ -1042,8 +1220,11 @@
         <v>11</v>
       </c>
       <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>620</v>
       </c>
@@ -1054,8 +1235,11 @@
         <v>18</v>
       </c>
       <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>650</v>
       </c>
@@ -1066,11 +1250,25 @@
         <v>18</v>
       </c>
       <c r="D41" s="5"/>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <conditionalFormatting sqref="E3:E41">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Jonathan ++">
+      <formula>NOT(ISERROR(SEARCH("Jonathan ++",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Christophe ++">
+      <formula>NOT(ISERROR(SEARCH("Christophe ++",E3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Michael ++">
+      <formula>NOT(ISERROR(SEARCH("Michael ++",E3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>